--- a/temp/allCompanies.xlsx
+++ b/temp/allCompanies.xlsx
@@ -341,24 +341,24 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>65165165162</v>
+        <v>20458127400</v>
       </c>
       <c r="B2" t="str">
-        <v>El PORVENIR</v>
+        <v>ACS INDUSTRIA METAL MECÁNICA E.I.R.L.</v>
       </c>
       <c r="C2" t="str">
-        <v>av. los angeles cusco</v>
+        <v>Peru</v>
       </c>
       <c r="D2" t="str">
-        <v>Juan Villalobos</v>
+        <v>Jose</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>20458127400</v>
+        <v>20602162657</v>
       </c>
       <c r="B3" t="str">
-        <v>ACS INDUSTRIA METAL MECÁNICA E.I.R.L.</v>
+        <v>ALX PERU S.A.C.</v>
       </c>
       <c r="C3" t="str">
         <v>Peru</v>
@@ -369,10 +369,10 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>20602162657</v>
+        <v>10161204396</v>
       </c>
       <c r="B4" t="str">
-        <v>ALX PERU S.A.C.</v>
+        <v>AQUILES MARCELINO AGUILAR ZACARÍAS</v>
       </c>
       <c r="C4" t="str">
         <v>Peru</v>
@@ -383,10 +383,10 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>10161204396</v>
+        <v>20406502377</v>
       </c>
       <c r="B5" t="str">
-        <v>AQUILES MARCELINO AGUILAR ZACARÍAS</v>
+        <v>ATLAS MOTOS E.I.R.LTDA.</v>
       </c>
       <c r="C5" t="str">
         <v>Peru</v>
@@ -397,10 +397,10 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>20406502377</v>
+        <v>20331634281</v>
       </c>
       <c r="B6" t="str">
-        <v>ATLAS MOTOS E.I.R.LTDA.</v>
+        <v>CARROCERIAS INTEGRADAS S.A. - CAISA</v>
       </c>
       <c r="C6" t="str">
         <v>Peru</v>
@@ -411,10 +411,10 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>20331634281</v>
+        <v>20102259735</v>
       </c>
       <c r="B7" t="str">
-        <v>CARROCERIAS INTEGRADAS S.A. - CAISA</v>
+        <v>CARROCERIAS SAN LUIS E.I.R.L.</v>
       </c>
       <c r="C7" t="str">
         <v>Peru</v>
@@ -425,10 +425,10 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>20102259735</v>
+        <v>20568749503</v>
       </c>
       <c r="B8" t="str">
-        <v>CARROCERIAS SAN LUIS E.I.R.L.</v>
+        <v>CENTRO DE INVERSIONES - FACTORIA BALTAZAR FBK E.I.R.L.</v>
       </c>
       <c r="C8" t="str">
         <v>Peru</v>
@@ -439,10 +439,10 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>20568749503</v>
+        <v>10036768300</v>
       </c>
       <c r="B9" t="str">
-        <v>CENTRO DE INVERSIONES - FACTORIA BALTAZAR FBK E.I.R.L.</v>
+        <v>CESAR AUGUSTO COBOS AVILA</v>
       </c>
       <c r="C9" t="str">
         <v>Peru</v>
@@ -453,10 +453,10 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>10036768300</v>
+        <v>10165286371</v>
       </c>
       <c r="B10" t="str">
-        <v>CESAR AUGUSTO COBOS AVILA</v>
+        <v>CESAR AUGUSTO GARCIA SALAZAR</v>
       </c>
       <c r="C10" t="str">
         <v>Peru</v>
@@ -467,10 +467,10 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>10165286371</v>
+        <v>20528232184</v>
       </c>
       <c r="B11" t="str">
-        <v>CESAR AUGUSTO GARCIA SALAZAR</v>
+        <v>CHIN SELVA E.I.R.L.</v>
       </c>
       <c r="C11" t="str">
         <v>Peru</v>
@@ -481,10 +481,10 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>20528232184</v>
+        <v>20516333694</v>
       </c>
       <c r="B12" t="str">
-        <v>CHIN SELVA E.I.R.L.</v>
+        <v>COMPANY BUSINESSES S.A.C.</v>
       </c>
       <c r="C12" t="str">
         <v>Peru</v>
@@ -495,10 +495,10 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>20516333694</v>
+        <v>20538154564</v>
       </c>
       <c r="B13" t="str">
-        <v>COMPANY BUSINESSES S.A.C.</v>
+        <v>COMPAÑIA INDUSTRIAL DE CARROCERIAS S.A.C.</v>
       </c>
       <c r="C13" t="str">
         <v>Peru</v>
@@ -509,10 +509,10 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>20538154564</v>
+        <v>20135468941</v>
       </c>
       <c r="B14" t="str">
-        <v>COMPAÑIA INDUSTRIAL DE CARROCERIAS S.A.C.</v>
+        <v>COMPAÑIA PERUANA DE REMOLQUES S.A.</v>
       </c>
       <c r="C14" t="str">
         <v>Peru</v>
@@ -523,10 +523,10 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>20135468941</v>
+        <v>20481405999</v>
       </c>
       <c r="B15" t="str">
-        <v>COMPAÑIA PERUANA DE REMOLQUES S.A.</v>
+        <v>CONSTRUCCIONES Y SERVICIOS METALICOS S.A.C. - CONSERMET S.A.C.</v>
       </c>
       <c r="C15" t="str">
         <v>Peru</v>
@@ -537,10 +537,10 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>20481405999</v>
+        <v>20122884172</v>
       </c>
       <c r="B16" t="str">
-        <v>CONSTRUCCIONES Y SERVICIOS METALICOS S.A.C. - CONSERMET S.A.C.</v>
+        <v>CONTROLTEMP S.A.C.</v>
       </c>
       <c r="C16" t="str">
         <v>Peru</v>
@@ -551,10 +551,10 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>20122884172</v>
+        <v>20493190611</v>
       </c>
       <c r="B17" t="str">
-        <v>CONTROLTEMP S.A.C.</v>
+        <v>CORPORACION CAYMAN S.A.C.</v>
       </c>
       <c r="C17" t="str">
         <v>Peru</v>
@@ -565,10 +565,10 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>20493190611</v>
+        <v>20513855941</v>
       </c>
       <c r="B18" t="str">
-        <v>CORPORACION CAYMAN S.A.C.</v>
+        <v>CORPORACIÓN METÁLICA DEL ACERO S.A.C.</v>
       </c>
       <c r="C18" t="str">
         <v>Peru</v>
@@ -579,10 +579,10 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>20513855941</v>
+        <v>20536160206</v>
       </c>
       <c r="B19" t="str">
-        <v>CORPORACIÓN METÁLICA DEL ACERO S.A.C.</v>
+        <v>CORPORACION WRT S.A.C. - WRT S.A.C.</v>
       </c>
       <c r="C19" t="str">
         <v>Peru</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>20536160206</v>
+        <v>20600465377</v>
       </c>
       <c r="B20" t="str">
-        <v>CORPORACION WRT S.A.C. - WRT S.A.C.</v>
+        <v>DC EXPREES S.A.C.</v>
       </c>
       <c r="C20" t="str">
         <v>Peru</v>
@@ -607,10 +607,10 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>20600465377</v>
+        <v>20527721173</v>
       </c>
       <c r="B21" t="str">
-        <v>DC EXPREES S.A.C.</v>
+        <v>DECO HOGAR E.I.R.L.</v>
       </c>
       <c r="C21" t="str">
         <v>Peru</v>
@@ -621,10 +621,10 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>20527721173</v>
+        <v>20393530244</v>
       </c>
       <c r="B22" t="str">
-        <v>DECO HOGAR E.I.R.L.</v>
+        <v>ECOENERGY S.A.C.</v>
       </c>
       <c r="C22" t="str">
         <v>Peru</v>
@@ -635,10 +635,10 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>20393530244</v>
+        <v>20498627090</v>
       </c>
       <c r="B23" t="str">
-        <v>ECOENERGY S.A.C.</v>
+        <v>EMPRESA DE REMOLQUES APOLO E.I.R.L.</v>
       </c>
       <c r="C23" t="str">
         <v>Peru</v>
@@ -649,10 +649,10 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>20498627090</v>
+        <v>20480199279</v>
       </c>
       <c r="B24" t="str">
-        <v>EMPRESA DE REMOLQUES APOLO E.I.R.L.</v>
+        <v>EMPRESA INDUSTRIAL SARABIA S.A.C.</v>
       </c>
       <c r="C24" t="str">
         <v>Peru</v>
@@ -663,10 +663,10 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>20480199279</v>
+        <v>20261624916</v>
       </c>
       <c r="B25" t="str">
-        <v>EMPRESA INDUSTRIAL SARABIA S.A.C.</v>
+        <v>ESTRUCTURAS METALICAS OLMEDO E.I.R.L.</v>
       </c>
       <c r="C25" t="str">
         <v>Peru</v>
@@ -677,10 +677,10 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>20261624916</v>
+        <v>20498631011</v>
       </c>
       <c r="B26" t="str">
-        <v>ESTRUCTURAS METALICAS OLMEDO E.I.R.L.</v>
+        <v>FA’SEPA FACTORÍA SEÑOR DE PAMPACUCHO E.I.R.L.</v>
       </c>
       <c r="C26" t="str">
         <v>Peru</v>
@@ -691,10 +691,10 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>20498631011</v>
+        <v>20600220668</v>
       </c>
       <c r="B27" t="str">
-        <v>FA’SEPA FACTORÍA SEÑOR DE PAMPACUCHO E.I.R.L.</v>
+        <v>FABRICACION DE REMOLQUES, SEMIREMOLQUES Y MAQUINARIAS E.I.R.L.</v>
       </c>
       <c r="C27" t="str">
         <v>Peru</v>
@@ -705,10 +705,10 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>20600220668</v>
+        <v>20481952965</v>
       </c>
       <c r="B28" t="str">
-        <v>FABRICACION DE REMOLQUES, SEMIREMOLQUES Y MAQUINARIAS E.I.R.L.</v>
+        <v>FABRICACION Y SERVICIOS MULTIPLES UCEDA S.A.C.</v>
       </c>
       <c r="C28" t="str">
         <v>Peru</v>
@@ -719,10 +719,10 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>20481952965</v>
+        <v>20454151713</v>
       </c>
       <c r="B29" t="str">
-        <v>FABRICACION Y SERVICIOS MULTIPLES UCEDA S.A.C.</v>
+        <v>FABRICACION Y SERVICIOS ROLANDO MARQUEZ MACHADO E.I.R.L. - FAB. Y SERV. R.M. Y M. E.I.R.L.</v>
       </c>
       <c r="C29" t="str">
         <v>Peru</v>
@@ -733,10 +733,10 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>20454151713</v>
+        <v>20458841714</v>
       </c>
       <c r="B30" t="str">
-        <v>FABRICACION Y SERVICIOS ROLANDO MARQUEZ MACHADO E.I.R.L. - FAB. Y SERV. R.M. Y M. E.I.R.L.</v>
+        <v>FABRICACIONES ALCANTARA E.I.R.L.</v>
       </c>
       <c r="C30" t="str">
         <v>Peru</v>
@@ -747,10 +747,10 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>20458841714</v>
+        <v>20477313214</v>
       </c>
       <c r="B31" t="str">
-        <v>FABRICACIONES ALCANTARA E.I.R.L.</v>
+        <v>FABRICACIONES BRA S.A.C.</v>
       </c>
       <c r="C31" t="str">
         <v>Peru</v>
@@ -761,10 +761,10 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>20477313214</v>
+        <v>20601421934</v>
       </c>
       <c r="B32" t="str">
-        <v>FABRICACIONES BRA S.A.C.</v>
+        <v>FABRICACIONES CORREDOR S.R.L.</v>
       </c>
       <c r="C32" t="str">
         <v>Peru</v>
@@ -775,10 +775,10 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>20601421934</v>
+        <v>20477664513</v>
       </c>
       <c r="B33" t="str">
-        <v>FABRICACIONES CORREDOR S.R.L.</v>
+        <v>FABRICACIONES METÁLICAS ARNOLD S.A.C.</v>
       </c>
       <c r="C33" t="str">
         <v>Peru</v>
@@ -789,10 +789,10 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>20477664513</v>
+        <v>20132108294</v>
       </c>
       <c r="B34" t="str">
-        <v>FABRICACIONES METÁLICAS ARNOLD S.A.C.</v>
+        <v>FABRICACIONES METALICAS CARRANZA S.A.C. FAMECA S.A.C.</v>
       </c>
       <c r="C34" t="str">
         <v>Peru</v>
@@ -803,10 +803,10 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>20132108294</v>
+        <v>20481066680</v>
       </c>
       <c r="B35" t="str">
-        <v>FABRICACIONES METALICAS CARRANZA S.A.C. FAMECA S.A.C.</v>
+        <v>FABRICACIONES METALICAS LUJAN S.A.C</v>
       </c>
       <c r="C35" t="str">
         <v>Peru</v>
@@ -817,10 +817,10 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>20481066680</v>
+        <v>20505769148</v>
       </c>
       <c r="B36" t="str">
-        <v>FABRICACIONES METALICAS LUJAN S.A.C</v>
+        <v>FABRICACIONES METALICAS Y SERVICIOS DIESEL S.A.C - FAMEDI S.A.C.</v>
       </c>
       <c r="C36" t="str">
         <v>Peru</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>20505769148</v>
+        <v>20531544090</v>
       </c>
       <c r="B37" t="str">
-        <v>FABRICACIONES METALICAS Y SERVICIOS DIESEL S.A.C - FAMEDI S.A.C.</v>
+        <v>FABRICACIONES MONTOYA S.R.L.</v>
       </c>
       <c r="C37" t="str">
         <v>Peru</v>
@@ -845,10 +845,10 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>20531544090</v>
+        <v>20101633820</v>
       </c>
       <c r="B38" t="str">
-        <v>FABRICACIONES MONTOYA S.R.L.</v>
+        <v>FABRIMETAL S.A.C.</v>
       </c>
       <c r="C38" t="str">
         <v>Peru</v>
@@ -859,10 +859,10 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>20101633820</v>
+        <v>20218677640</v>
       </c>
       <c r="B39" t="str">
-        <v>FABRIMETAL S.A.C.</v>
+        <v>FACAMESUR E.I.R.L.</v>
       </c>
       <c r="C39" t="str">
         <v>Peru</v>
@@ -873,10 +873,10 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>20218677640</v>
+        <v>20100070465</v>
       </c>
       <c r="B40" t="str">
-        <v>FACAMESUR E.I.R.L.</v>
+        <v>FACTORIA ANTONIO PINTO S.A.</v>
       </c>
       <c r="C40" t="str">
         <v>Peru</v>
@@ -887,10 +887,10 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>20100070465</v>
+        <v>20486029839</v>
       </c>
       <c r="B41" t="str">
-        <v>FACTORIA ANTONIO PINTO S.A.</v>
+        <v>FACTORIA BARBOZA S.R.L.</v>
       </c>
       <c r="C41" t="str">
         <v>Peru</v>
@@ -901,10 +901,10 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>20486029839</v>
+        <v>20454650043</v>
       </c>
       <c r="B42" t="str">
-        <v>FACTORIA BARBOZA S.R.L.</v>
+        <v>FACTORIA FACJOCA S.A.C.</v>
       </c>
       <c r="C42" t="str">
         <v>Peru</v>
@@ -915,10 +915,10 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>20454650043</v>
+        <v>20454773986</v>
       </c>
       <c r="B43" t="str">
-        <v>FACTORIA FACJOCA S.A.C.</v>
+        <v>FACTORIA FELISUR E.I.R.L.</v>
       </c>
       <c r="C43" t="str">
         <v>Peru</v>
@@ -929,10 +929,10 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>20454773986</v>
+        <v>20453910513</v>
       </c>
       <c r="B44" t="str">
-        <v>FACTORIA FELISUR E.I.R.L.</v>
+        <v>FACTORIA J.C. E.I.R.L.</v>
       </c>
       <c r="C44" t="str">
         <v>Peru</v>
@@ -943,10 +943,10 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>20453910513</v>
+        <v>20455937206</v>
       </c>
       <c r="B45" t="str">
-        <v>FACTORIA J.C. E.I.R.L.</v>
+        <v>FACTORIA KING ROQUE S.R.L.</v>
       </c>
       <c r="C45" t="str">
         <v>Peru</v>
@@ -957,10 +957,10 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>20455937206</v>
+        <v>20498433210</v>
       </c>
       <c r="B46" t="str">
-        <v>FACTORIA KING ROQUE S.R.L.</v>
+        <v>FACTORIA METAL CHOQUE E.I.R.L.</v>
       </c>
       <c r="C46" t="str">
         <v>Peru</v>
@@ -971,10 +971,10 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>20498433210</v>
+        <v>20454114354</v>
       </c>
       <c r="B47" t="str">
-        <v>FACTORIA METAL CHOQUE E.I.R.L.</v>
+        <v>FACTORIA PETER BILL INTEX S.R.L.</v>
       </c>
       <c r="C47" t="str">
         <v>Peru</v>
@@ -985,10 +985,10 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>20454114354</v>
+        <v>20454289154</v>
       </c>
       <c r="B48" t="str">
-        <v>FACTORIA PETER BILL INTEX S.R.L.</v>
+        <v>FACTORIA TALLERES ORION E.I.R.L.</v>
       </c>
       <c r="C48" t="str">
         <v>Peru</v>
@@ -999,10 +999,10 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>20454289154</v>
+        <v>20454894341</v>
       </c>
       <c r="B49" t="str">
-        <v>FACTORIA TALLERES ORION E.I.R.L.</v>
+        <v>FACTORIA TATA S.A.C.</v>
       </c>
       <c r="C49" t="str">
         <v>Peru</v>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>20454894341</v>
+        <v>20455782598</v>
       </c>
       <c r="B50" t="str">
-        <v>FACTORIA TATA S.A.C.</v>
+        <v>FACTORIA Y DISTRIBUCIONES SAN JORGE E.I.R.L.</v>
       </c>
       <c r="C50" t="str">
         <v>Peru</v>
@@ -1027,10 +1027,10 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>20455782598</v>
+        <v>20453947352</v>
       </c>
       <c r="B51" t="str">
-        <v>FACTORIA Y DISTRIBUCIONES SAN JORGE E.I.R.L.</v>
+        <v>FACTORIA Y SERVICIOS DE MECANICA E INDUSTRIA S.R.L. - FACSEMIN</v>
       </c>
       <c r="C51" t="str">
         <v>Peru</v>
@@ -1041,10 +1041,10 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>20453947352</v>
+        <v>20601745641</v>
       </c>
       <c r="B52" t="str">
-        <v>FACTORIA Y SERVICIOS DE MECANICA E INDUSTRIA S.R.L. - FACSEMIN</v>
+        <v>FACTORY MULTISERVICIOS MAG S.R.L.</v>
       </c>
       <c r="C52" t="str">
         <v>Peru</v>
@@ -1055,10 +1055,10 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>20601745641</v>
+        <v>20524006945</v>
       </c>
       <c r="B53" t="str">
-        <v>FACTORY MULTISERVICIOS MAG S.R.L.</v>
+        <v>FAMA ANDINA S.A.C.</v>
       </c>
       <c r="C53" t="str">
         <v>Peru</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>20524006945</v>
+        <v>20600227590</v>
       </c>
       <c r="B54" t="str">
-        <v>FAMA ANDINA S.A.C.</v>
+        <v>FRANCORA E.I.R.L.</v>
       </c>
       <c r="C54" t="str">
         <v>Peru</v>
@@ -1083,10 +1083,10 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>20600227590</v>
+        <v>20520806815</v>
       </c>
       <c r="B55" t="str">
-        <v>FRANCORA E.I.R.L.</v>
+        <v>GL MAQUINARIAS S.A.C.</v>
       </c>
       <c r="C55" t="str">
         <v>Peru</v>
@@ -1097,10 +1097,10 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>20520806815</v>
+        <v>20551034021</v>
       </c>
       <c r="B56" t="str">
-        <v>GL MAQUINARIAS S.A.C.</v>
+        <v>GRUPO C &amp; R VELOZ S.A.C.</v>
       </c>
       <c r="C56" t="str">
         <v>Peru</v>
@@ -1111,10 +1111,10 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>20551034021</v>
+        <v>20549685316</v>
       </c>
       <c r="B57" t="str">
-        <v>GRUPO C &amp; R VELOZ S.A.C.</v>
+        <v>GRUPO SERMET S.A.C.</v>
       </c>
       <c r="C57" t="str">
         <v>Peru</v>
@@ -1125,10 +1125,10 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>20549685316</v>
+        <v>20602305342</v>
       </c>
       <c r="B58" t="str">
-        <v>GRUPO SERMET S.A.C.</v>
+        <v>GRUPO TRES RUEDAS S.A.C.</v>
       </c>
       <c r="C58" t="str">
         <v>Peru</v>
@@ -1139,10 +1139,10 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>20602305342</v>
+        <v>20354180911</v>
       </c>
       <c r="B59" t="str">
-        <v>GRUPO TRES RUEDAS S.A.C.</v>
+        <v>HALCON S.A.</v>
       </c>
       <c r="C59" t="str">
         <v>Peru</v>
@@ -1153,10 +1153,10 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>20354180911</v>
+        <v>20493508645</v>
       </c>
       <c r="B60" t="str">
-        <v>HALCON S.A.</v>
+        <v>HONDA SELVA DEL PERU S.A</v>
       </c>
       <c r="C60" t="str">
         <v>Peru</v>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>20493508645</v>
+        <v>20522599591</v>
       </c>
       <c r="B61" t="str">
-        <v>HONDA SELVA DEL PERU S.A</v>
+        <v>IBIMCO PERÚ S.A.C.</v>
       </c>
       <c r="C61" t="str">
         <v>Peru</v>
@@ -1181,10 +1181,10 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>20522599591</v>
+        <v>20519105676</v>
       </c>
       <c r="B62" t="str">
-        <v>IBIMCO PERÚ S.A.C.</v>
+        <v>INDUSTRIA CARROCERA DEL PERU S.A.C. - INCAPER</v>
       </c>
       <c r="C62" t="str">
         <v>Peru</v>
@@ -1195,10 +1195,10 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>20519105676</v>
+        <v>20600641043</v>
       </c>
       <c r="B63" t="str">
-        <v>INDUSTRIA CARROCERA DEL PERU S.A.C. - INCAPER</v>
+        <v>INDUSTRIA METAL MECANICA CESAR E.I.R.L.</v>
       </c>
       <c r="C63" t="str">
         <v>Peru</v>
@@ -1209,10 +1209,10 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>20600641043</v>
+        <v>20514745031</v>
       </c>
       <c r="B64" t="str">
-        <v>INDUSTRIA METAL MECANICA CESAR E.I.R.L.</v>
+        <v>INDUSTRIA METALICA BULLON S.A.C.</v>
       </c>
       <c r="C64" t="str">
         <v>Peru</v>
@@ -1223,10 +1223,10 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>20514745031</v>
+        <v>20130474561</v>
       </c>
       <c r="B65" t="str">
-        <v>INDUSTRIA METALICA BULLON S.A.C.</v>
+        <v>INDUSTRIA METÁLICA PORRAS E.I.R.L.</v>
       </c>
       <c r="C65" t="str">
         <v>Peru</v>
@@ -1237,10 +1237,10 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>20130474561</v>
+        <v>20393095301</v>
       </c>
       <c r="B66" t="str">
-        <v>INDUSTRIA METÁLICA PORRAS E.I.R.L.</v>
+        <v>INDUSTRIA METALICAS EL RAFA E.I.R.L.</v>
       </c>
       <c r="C66" t="str">
         <v>Peru</v>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>20393095301</v>
+        <v>20527080445</v>
       </c>
       <c r="B67" t="str">
-        <v>INDUSTRIA METALICAS EL RAFA E.I.R.L.</v>
+        <v>INDUSTRIAL UNION S.R.L.</v>
       </c>
       <c r="C67" t="str">
         <v>Peru</v>
@@ -1265,10 +1265,10 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>20527080445</v>
+        <v>20302083747</v>
       </c>
       <c r="B68" t="str">
-        <v>INDUSTRIAL UNION S.R.L.</v>
+        <v>INDUSTRIAS  RODOS  S.R.L.</v>
       </c>
       <c r="C68" t="str">
         <v>Peru</v>
@@ -1279,10 +1279,10 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>20302083747</v>
+        <v>20568135271</v>
       </c>
       <c r="B69" t="str">
-        <v>INDUSTRIAS  RODOS  S.R.L.</v>
+        <v>INDUSTRIAS ANCALAYO S.A.C.</v>
       </c>
       <c r="C69" t="str">
         <v>Peru</v>
@@ -1293,10 +1293,10 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>20568135271</v>
+        <v>20551709591</v>
       </c>
       <c r="B70" t="str">
-        <v>INDUSTRIAS ANCALAYO S.A.C.</v>
+        <v>INDUSTRIAS DE RECUBRIMIENTOS CAMALEON S.A.C.</v>
       </c>
       <c r="C70" t="str">
         <v>Peru</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>20551709591</v>
+        <v>20526949065</v>
       </c>
       <c r="B71" t="str">
-        <v>INDUSTRIAS DE RECUBRIMIENTOS CAMALEON S.A.C.</v>
+        <v>INDUSTRIAS FIRME E.I.R.L.</v>
       </c>
       <c r="C71" t="str">
         <v>Peru</v>
@@ -1321,10 +1321,10 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>20526949065</v>
+        <v>20519775132</v>
       </c>
       <c r="B72" t="str">
-        <v>INDUSTRIAS FIRME E.I.R.L.</v>
+        <v>INDUSTRIAS MECANICAS DEL SUR S.A.C.</v>
       </c>
       <c r="C72" t="str">
         <v>Peru</v>
@@ -1335,10 +1335,10 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>20519775132</v>
+        <v>20302830828</v>
       </c>
       <c r="B73" t="str">
-        <v>INDUSTRIAS MECANICAS DEL SUR S.A.C.</v>
+        <v>INDUSTRIAS METALICAS ALYER S.R.L.</v>
       </c>
       <c r="C73" t="str">
         <v>Peru</v>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>20302830828</v>
+        <v>20498196927</v>
       </c>
       <c r="B74" t="str">
-        <v>INDUSTRIAS METALICAS ALYER S.R.L.</v>
+        <v>INDUSTRIAS METALICAS AREQUIPA S.A.C.</v>
       </c>
       <c r="C74" t="str">
         <v>Peru</v>
@@ -1363,10 +1363,10 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>20498196927</v>
+        <v>20602513107</v>
       </c>
       <c r="B75" t="str">
-        <v>INDUSTRIAS METALICAS AREQUIPA S.A.C.</v>
+        <v>INDUSTRIAS METALICAS GARYMAX S.A.C.</v>
       </c>
       <c r="C75" t="str">
         <v>Peru</v>
@@ -1377,10 +1377,10 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>20602513107</v>
+        <v>20537328011</v>
       </c>
       <c r="B76" t="str">
-        <v>INDUSTRIAS METALICAS GARYMAX S.A.C.</v>
+        <v>INDUSTRIAS SAKIMOTO S.A.C.</v>
       </c>
       <c r="C76" t="str">
         <v>Peru</v>
@@ -1391,10 +1391,10 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>20537328011</v>
+        <v>20393063956</v>
       </c>
       <c r="B77" t="str">
-        <v>INDUSTRIAS SAKIMOTO S.A.C.</v>
+        <v>INDUSTRIAS TRICAR S.A.C.</v>
       </c>
       <c r="C77" t="str">
         <v>Peru</v>
@@ -1405,10 +1405,10 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>20393063956</v>
+        <v>20473646804</v>
       </c>
       <c r="B78" t="str">
-        <v>INDUSTRIAS TRICAR S.A.C.</v>
+        <v>INKA TRAYLERS S.R.L.</v>
       </c>
       <c r="C78" t="str">
         <v>Peru</v>
@@ -1419,10 +1419,10 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>20473646804</v>
+        <v>20600659066</v>
       </c>
       <c r="B79" t="str">
-        <v>INKA TRAYLERS S.R.L.</v>
+        <v>INVERSIONES LEOCAR S.A.C.</v>
       </c>
       <c r="C79" t="str">
         <v>Peru</v>
@@ -1433,10 +1433,10 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>20600659066</v>
+        <v>20603119291</v>
       </c>
       <c r="B80" t="str">
-        <v>INVERSIONES LEOCAR S.A.C.</v>
+        <v>INVERSIONES RIVER UCAYALI S.A.C.</v>
       </c>
       <c r="C80" t="str">
         <v>Peru</v>
@@ -1447,10 +1447,10 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>20603119291</v>
+        <v>20601849519</v>
       </c>
       <c r="B81" t="str">
-        <v>INVERSIONES RIVER UCAYALI S.A.C.</v>
+        <v>J &amp; K INDUBARZA E.I.R.L.</v>
       </c>
       <c r="C81" t="str">
         <v>Peru</v>
@@ -1461,10 +1461,10 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>20601849519</v>
+        <v>20601333342</v>
       </c>
       <c r="B82" t="str">
-        <v>J &amp; K INDUBARZA E.I.R.L.</v>
+        <v>J &amp; S AUTOMOTRIZ ASOCIADOS E.I.R.L.</v>
       </c>
       <c r="C82" t="str">
         <v>Peru</v>
@@ -1475,10 +1475,10 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>20601333342</v>
+        <v>20393670844</v>
       </c>
       <c r="B83" t="str">
-        <v>J &amp; S AUTOMOTRIZ ASOCIADOS E.I.R.L.</v>
+        <v>JART MOTORS S.R.L.</v>
       </c>
       <c r="C83" t="str">
         <v>Peru</v>
@@ -1489,10 +1489,10 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>20393670844</v>
+        <v>20430948076</v>
       </c>
       <c r="B84" t="str">
-        <v>JART MOTORS S.R.L.</v>
+        <v>JR GROUP INDUSTRIAS S.A.C.</v>
       </c>
       <c r="C84" t="str">
         <v>Peru</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>20430948076</v>
+        <v>10070728996</v>
       </c>
       <c r="B85" t="str">
-        <v>JR GROUP INDUSTRIAS S.A.C.</v>
+        <v>JUAN SALVATIERRA CONDEZO</v>
       </c>
       <c r="C85" t="str">
         <v>Peru</v>
@@ -1517,10 +1517,10 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>10070728996</v>
+        <v>20558645866</v>
       </c>
       <c r="B86" t="str">
-        <v>JUAN SALVATIERRA CONDEZO</v>
+        <v>KALA INGENIERIA METALICA S.A.C.</v>
       </c>
       <c r="C86" t="str">
         <v>Peru</v>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>20558645866</v>
+        <v>20481103399</v>
       </c>
       <c r="B87" t="str">
-        <v>KALA INGENIERIA METALICA S.A.C.</v>
+        <v>L &amp; S NASSI S.A.C.</v>
       </c>
       <c r="C87" t="str">
         <v>Peru</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>20481103399</v>
+        <v>20504082564</v>
       </c>
       <c r="B88" t="str">
-        <v>L &amp; S NASSI S.A.C.</v>
+        <v>LIMA TRAYLERS S.A.C.</v>
       </c>
       <c r="C88" t="str">
         <v>Peru</v>
@@ -1559,10 +1559,10 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>20504082564</v>
+        <v>20468450217</v>
       </c>
       <c r="B89" t="str">
-        <v>LIMA TRAYLERS S.A.C.</v>
+        <v>LQ TRADING IMPORT EXPORT S.A.C.</v>
       </c>
       <c r="C89" t="str">
         <v>Peru</v>
@@ -1573,10 +1573,10 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>20468450217</v>
+        <v>20531350309</v>
       </c>
       <c r="B90" t="str">
-        <v>LQ TRADING IMPORT EXPORT S.A.C.</v>
+        <v>MANUEL AUGUSTO ROCHA DIAZ E.I.R.L.</v>
       </c>
       <c r="C90" t="str">
         <v>Peru</v>
@@ -1587,10 +1587,10 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>20531350309</v>
+        <v>20481782199</v>
       </c>
       <c r="B91" t="str">
-        <v>MANUEL AUGUSTO ROCHA DIAZ E.I.R.L.</v>
+        <v>METALLUM S.A.C.</v>
       </c>
       <c r="C91" t="str">
         <v>Peru</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>20481782199</v>
+        <v>20417926632</v>
       </c>
       <c r="B92" t="str">
-        <v>METALLUM S.A.C.</v>
+        <v>MOTORES DIESEL ANDINOS S.A. - MODASA</v>
       </c>
       <c r="C92" t="str">
         <v>Peru</v>
@@ -1615,10 +1615,10 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>20417926632</v>
+        <v>20393292041</v>
       </c>
       <c r="B93" t="str">
-        <v>MOTORES DIESEL ANDINOS S.A. - MODASA</v>
+        <v>MOTORES LATINOAMERICANOS S.A.C.</v>
       </c>
       <c r="C93" t="str">
         <v>Peru</v>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>20393292041</v>
+        <v>20507099069</v>
       </c>
       <c r="B94" t="str">
-        <v>MOTORES LATINOAMERICANOS S.A.C.</v>
+        <v>MOTOS STILOS S.A.C.</v>
       </c>
       <c r="C94" t="str">
         <v>Peru</v>
@@ -1643,10 +1643,10 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>20507099069</v>
+        <v>20295008190</v>
       </c>
       <c r="B95" t="str">
-        <v>MOTOS STILOS S.A.C.</v>
+        <v>MOTOSERVICIOS LOS OLIVOS S.R.L.</v>
       </c>
       <c r="C95" t="str">
         <v>Peru</v>
@@ -1657,10 +1657,10 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>20295008190</v>
+        <v>20529722304</v>
       </c>
       <c r="B96" t="str">
-        <v>MOTOSERVICIOS LOS OLIVOS S.R.L.</v>
+        <v>PLANTA INDUSTRIAL CHEMOTO S.A.C.</v>
       </c>
       <c r="C96" t="str">
         <v>Peru</v>
@@ -1671,10 +1671,10 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>20529722304</v>
+        <v>20510485557</v>
       </c>
       <c r="B97" t="str">
-        <v>PLANTA INDUSTRIAL CHEMOTO S.A.C.</v>
+        <v>PROFESIONALES COSECA S.A.C.</v>
       </c>
       <c r="C97" t="str">
         <v>Peru</v>
@@ -1685,10 +1685,10 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>20510485557</v>
+        <v>20454074115</v>
       </c>
       <c r="B98" t="str">
-        <v>PROFESIONALES COSECA S.A.C.</v>
+        <v>PUMA MOTORS E.I.R.L.</v>
       </c>
       <c r="C98" t="str">
         <v>Peru</v>
@@ -1699,10 +1699,10 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>20454074115</v>
+        <v>20522969193</v>
       </c>
       <c r="B99" t="str">
-        <v>PUMA MOTORS E.I.R.L.</v>
+        <v>RAJUNSA S.A.C.</v>
       </c>
       <c r="C99" t="str">
         <v>Peru</v>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>20522969193</v>
+        <v>20539476204</v>
       </c>
       <c r="B100" t="str">
-        <v>RAJUNSA S.A.C.</v>
+        <v>RAMD’S SERVICIOS GENERALES E.I.R.L.</v>
       </c>
       <c r="C100" t="str">
         <v>Peru</v>
@@ -1727,10 +1727,10 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>20539476204</v>
+        <v>20601697204</v>
       </c>
       <c r="B101" t="str">
-        <v>RAMD’S SERVICIOS GENERALES E.I.R.L.</v>
+        <v>RAUDO JAPAN S.A.C.</v>
       </c>
       <c r="C101" t="str">
         <v>Peru</v>
@@ -1741,10 +1741,10 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>20601697204</v>
+        <v>20514038199</v>
       </c>
       <c r="B102" t="str">
-        <v>RAUDO JAPAN S.A.C.</v>
+        <v>REMOLQUES TRAMONTANA S.A.C.</v>
       </c>
       <c r="C102" t="str">
         <v>Peru</v>
@@ -1755,10 +1755,10 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>20514038199</v>
+        <v>20486064235</v>
       </c>
       <c r="B103" t="str">
-        <v>REMOLQUES TRAMONTANA S.A.C.</v>
+        <v>REPARACION CONSTRUCCION TANQUES CISTERNAS AFINES E.I.R.L. - RECONCISA</v>
       </c>
       <c r="C103" t="str">
         <v>Peru</v>
@@ -1769,10 +1769,10 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>20486064235</v>
+        <v>20601635632</v>
       </c>
       <c r="B104" t="str">
-        <v>REPARACION CONSTRUCCION TANQUES CISTERNAS AFINES E.I.R.L. - RECONCISA</v>
+        <v>REPRESENTACIONES SHENGWEY E.I.R.L.</v>
       </c>
       <c r="C104" t="str">
         <v>Peru</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>20601635632</v>
+        <v>20544431022</v>
       </c>
       <c r="B105" t="str">
-        <v>REPRESENTACIONES SHENGWEY E.I.R.L.</v>
+        <v>RISSING MOTORS S.A.C.</v>
       </c>
       <c r="C105" t="str">
         <v>Peru</v>
@@ -1797,10 +1797,10 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>20544431022</v>
+        <v>20508596732</v>
       </c>
       <c r="B106" t="str">
-        <v>RISSING MOTORS S.A.C.</v>
+        <v>RMB SATECI S.A.C.</v>
       </c>
       <c r="C106" t="str">
         <v>Peru</v>
@@ -1811,10 +1811,10 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>20508596732</v>
+        <v>20510421583</v>
       </c>
       <c r="B107" t="str">
-        <v>RMB SATECI S.A.C.</v>
+        <v>RONCO MOTORS'S S.A.C.</v>
       </c>
       <c r="C107" t="str">
         <v>Peru</v>
@@ -1825,10 +1825,10 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>20510421583</v>
+        <v>20393056232</v>
       </c>
       <c r="B108" t="str">
-        <v>RONCO MOTORS'S S.A.C.</v>
+        <v>ROSITA INDUSTRIAS METALICAS E.I.R.L.</v>
       </c>
       <c r="C108" t="str">
         <v>Peru</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>20393056232</v>
+        <v>20504044123</v>
       </c>
       <c r="B109" t="str">
-        <v>ROSITA INDUSTRIAS METALICAS E.I.R.L.</v>
+        <v>ROYAL PROYECTOS Y SERVICIOS INDUSTRIALES S.A.C.</v>
       </c>
       <c r="C109" t="str">
         <v>Peru</v>
@@ -1853,10 +1853,10 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>20504044123</v>
+        <v>20453885578</v>
       </c>
       <c r="B110" t="str">
-        <v>ROYAL PROYECTOS Y SERVICIOS INDUSTRIALES S.A.C.</v>
+        <v>SERVICIO, MANTENIMIENTO Y FABRICACIONES SEÑOR DE HUANCA E.I.R.L. - SEMAFASH E.I.R.L.</v>
       </c>
       <c r="C110" t="str">
         <v>Peru</v>
@@ -1867,10 +1867,10 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>20453885578</v>
+        <v>20480028971</v>
       </c>
       <c r="B111" t="str">
-        <v>SERVICIO, MANTENIMIENTO Y FABRICACIONES SEÑOR DE HUANCA E.I.R.L. - SEMAFASH E.I.R.L.</v>
+        <v>SERVICIOS INGENIERIA ELECTROMECANICA S.A.C. - SIELSAC</v>
       </c>
       <c r="C111" t="str">
         <v>Peru</v>
@@ -1881,10 +1881,10 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>20480028971</v>
+        <v>20498476539</v>
       </c>
       <c r="B112" t="str">
-        <v>SERVICIOS INGENIERIA ELECTROMECANICA S.A.C. - SIELSAC</v>
+        <v>SGM INGENIEROS E.I.R.L.</v>
       </c>
       <c r="C112" t="str">
         <v>Peru</v>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>20498476539</v>
+        <v>20394031292</v>
       </c>
       <c r="B113" t="str">
-        <v>SGM INGENIEROS E.I.R.L.</v>
+        <v>SHIMBA SELVA S.A.C.</v>
       </c>
       <c r="C113" t="str">
         <v>Peru</v>
@@ -1909,10 +1909,10 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>20394031292</v>
+        <v>20293774308</v>
       </c>
       <c r="B114" t="str">
-        <v>SHIMBA SELVA S.A.C.</v>
+        <v>TRACTO CAMIONES USA S.A.C.</v>
       </c>
       <c r="C114" t="str">
         <v>Peru</v>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>20293774308</v>
+        <v>20440340858</v>
       </c>
       <c r="B115" t="str">
-        <v>TRACTO CAMIONES USA S.A.C.</v>
+        <v>TRADING GROUP S.A.C.</v>
       </c>
       <c r="C115" t="str">
         <v>Peru</v>
@@ -1937,10 +1937,10 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>20440340858</v>
+        <v>20515738461</v>
       </c>
       <c r="B116" t="str">
-        <v>TRADING GROUP S.A.C.</v>
+        <v>TRANS OIL BUNKER S.A.C.</v>
       </c>
       <c r="C116" t="str">
         <v>Peru</v>
@@ -1951,10 +1951,10 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>20515738461</v>
+        <v>20454948450</v>
       </c>
       <c r="B117" t="str">
-        <v>TRANS OIL BUNKER S.A.C.</v>
+        <v>TRANSPORTES PECHE’S E.I.R.L.</v>
       </c>
       <c r="C117" t="str">
         <v>Peru</v>
@@ -1965,10 +1965,10 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>20454948450</v>
+        <v>20131173734</v>
       </c>
       <c r="B118" t="str">
-        <v>TRANSPORTES PECHE’S E.I.R.L.</v>
+        <v>TRANSVISA E.I.R.L.</v>
       </c>
       <c r="C118" t="str">
         <v>Peru</v>
@@ -1979,10 +1979,10 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>20131173734</v>
+        <v>20513769351</v>
       </c>
       <c r="B119" t="str">
-        <v>TRANSVISA E.I.R.L.</v>
+        <v>TRICAR TECNOLOGIA S.A.C.</v>
       </c>
       <c r="C119" t="str">
         <v>Peru</v>
@@ -1993,10 +1993,10 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>20513769351</v>
+        <v>20341019819</v>
       </c>
       <c r="B120" t="str">
-        <v>TRICAR TECNOLOGIA S.A.C.</v>
+        <v>VF MOTOPARTS S.R.LTDA.</v>
       </c>
       <c r="C120" t="str">
         <v>Peru</v>
@@ -2007,10 +2007,10 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>20341019819</v>
+        <v>20547233931</v>
       </c>
       <c r="B121" t="str">
-        <v>VF MOTOPARTS S.R.LTDA.</v>
+        <v>VOLTRAILER S.A.C.</v>
       </c>
       <c r="C121" t="str">
         <v>Peru</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>20547233931</v>
+        <v>20329847978</v>
       </c>
       <c r="B122" t="str">
-        <v>VOLTRAILER S.A.C.</v>
+        <v>VRAMEL CONTRATISTAS E.I.R.L.</v>
       </c>
       <c r="C122" t="str">
         <v>Peru</v>
@@ -2035,10 +2035,10 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>20329847978</v>
+        <v>20545029406</v>
       </c>
       <c r="B123" t="str">
-        <v>VRAMEL CONTRATISTAS E.I.R.L.</v>
+        <v>ZEUS PERU S.A.C</v>
       </c>
       <c r="C123" t="str">
         <v>Peru</v>
@@ -2049,29 +2049,15 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>20545029406</v>
+        <v>20556578746</v>
       </c>
       <c r="B124" t="str">
-        <v>ZEUS PERU S.A.C</v>
+        <v>ZINSAC DEL PERU S.A.C.</v>
       </c>
       <c r="C124" t="str">
         <v>Peru</v>
       </c>
       <c r="D124" t="str">
-        <v>Jose</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="str">
-        <v>20556578746</v>
-      </c>
-      <c r="B125" t="str">
-        <v>ZINSAC DEL PERU S.A.C.</v>
-      </c>
-      <c r="C125" t="str">
-        <v>Peru</v>
-      </c>
-      <c r="D125" t="str">
         <v>Jose</v>
       </c>
     </row>
